--- a/source/excel/olympic-qualifiers-2016-concacaf/2016-olympic-qualifier-concacaf-usa-crc-021016.xlsx
+++ b/source/excel/olympic-qualifiers-2016-concacaf/2016-olympic-qualifier-concacaf-usa-crc-021016.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-4480" yWindow="60" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="1" r:id="rId1"/>
@@ -771,8 +771,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -856,7 +860,7 @@
     <xf numFmtId="1" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -864,6 +868,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -871,6 +877,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1203,7 +1211,7 @@
   <dimension ref="A1:T1402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3586,7 +3594,7 @@
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>20</v>
@@ -4196,7 +4204,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>129</v>
@@ -4501,7 +4509,7 @@
         <v>111</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>20</v>
@@ -6495,7 +6503,7 @@
         <v>6</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>22</v>
@@ -8264,7 +8272,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>20</v>
@@ -9629,7 +9637,7 @@
         <v>133</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>20</v>
@@ -11623,7 +11631,7 @@
         <v>11</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>20</v>
@@ -14938,7 +14946,7 @@
         <v>20</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K225" s="1" t="s">
         <v>20</v>
@@ -15121,7 +15129,7 @@
         <v>20</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K228" s="1" t="s">
         <v>20</v>
@@ -15243,7 +15251,7 @@
         <v>20</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K230" s="1" t="s">
         <v>20</v>
@@ -15304,7 +15312,7 @@
         <v>20</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K231" s="1" t="s">
         <v>20</v>
@@ -15855,7 +15863,7 @@
         <v>173</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K240" s="1" t="s">
         <v>20</v>
@@ -15895,7 +15903,7 @@
         <v>18</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>22</v>
@@ -16688,7 +16696,7 @@
         <v>18</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>20</v>
@@ -18520,7 +18528,7 @@
         <v>20</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>129</v>
@@ -19826,7 +19834,7 @@
         <v>20</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>20</v>
@@ -21269,7 +21277,7 @@
         <v>23</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>20</v>
@@ -23181,7 +23189,7 @@
         <v>106</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K360" s="1" t="s">
         <v>20</v>
@@ -24258,7 +24266,7 @@
         <v>26</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>20</v>
@@ -24990,7 +24998,7 @@
         <v>28</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>129</v>
@@ -25661,7 +25669,7 @@
         <v>28</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>20</v>
@@ -26782,7 +26790,7 @@
         <v>20</v>
       </c>
       <c r="J419" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K419" s="1" t="s">
         <v>20</v>
@@ -26883,7 +26891,7 @@
         <v>30</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>129</v>
@@ -27941,7 +27949,7 @@
         <v>26</v>
       </c>
       <c r="J438" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K438" s="1" t="s">
         <v>20</v>
@@ -29508,7 +29516,7 @@
         <v>33</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>20</v>
@@ -29569,7 +29577,7 @@
         <v>34</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>20</v>
@@ -29996,7 +30004,7 @@
         <v>34</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>129</v>
@@ -30362,7 +30370,7 @@
         <v>35</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>20</v>
@@ -32192,7 +32200,7 @@
         <v>36</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>20</v>
@@ -32884,7 +32892,7 @@
         <v>20</v>
       </c>
       <c r="J519" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>20</v>
@@ -32924,7 +32932,7 @@
         <v>37</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>129</v>
@@ -33290,7 +33298,7 @@
         <v>38</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>129</v>
@@ -34146,7 +34154,7 @@
         <v>39</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>129</v>
@@ -35204,7 +35212,7 @@
         <v>173</v>
       </c>
       <c r="J557" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K557" s="1" t="s">
         <v>22</v>
@@ -35753,7 +35761,7 @@
         <v>26</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>20</v>
@@ -35793,7 +35801,7 @@
         <v>41</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>129</v>
@@ -36281,7 +36289,7 @@
         <v>42</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>20</v>
@@ -36342,7 +36350,7 @@
         <v>42</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>20</v>
@@ -36769,7 +36777,7 @@
         <v>43</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>129</v>
@@ -37257,7 +37265,7 @@
         <v>43</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>20</v>
@@ -37318,7 +37326,7 @@
         <v>43</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>20</v>
@@ -41346,7 +41354,7 @@
         <v>179</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D658" s="1" t="s">
         <v>129</v>
@@ -41407,7 +41415,7 @@
         <v>179</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D659" s="1" t="s">
         <v>20</v>
@@ -45651,7 +45659,7 @@
         <v>49</v>
       </c>
       <c r="C729" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D729" s="1" t="s">
         <v>20</v>
@@ -47813,7 +47821,7 @@
         <v>20</v>
       </c>
       <c r="J764" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K764" s="1" t="s">
         <v>20</v>
@@ -47853,7 +47861,7 @@
         <v>51</v>
       </c>
       <c r="C765" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D765" s="1" t="s">
         <v>20</v>
@@ -49563,7 +49571,7 @@
         <v>53</v>
       </c>
       <c r="C793" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D793" s="1" t="s">
         <v>20</v>
@@ -50295,7 +50303,7 @@
         <v>53</v>
       </c>
       <c r="C805" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D805" s="1" t="s">
         <v>20</v>
@@ -51111,7 +51119,7 @@
         <v>20</v>
       </c>
       <c r="J818" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K818" s="1" t="s">
         <v>20</v>
@@ -51151,7 +51159,7 @@
         <v>55</v>
       </c>
       <c r="C819" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D819" s="1" t="s">
         <v>20</v>
@@ -52676,7 +52684,7 @@
         <v>56</v>
       </c>
       <c r="C844" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>20</v>
@@ -54039,7 +54047,7 @@
         <v>20</v>
       </c>
       <c r="J866" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K866" s="1" t="s">
         <v>20</v>
@@ -54079,7 +54087,7 @@
         <v>58</v>
       </c>
       <c r="C867" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D867" s="1" t="s">
         <v>20</v>
@@ -55625,7 +55633,7 @@
         <v>106</v>
       </c>
       <c r="J892" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K892" s="1" t="s">
         <v>20</v>
@@ -56296,7 +56304,7 @@
         <v>20</v>
       </c>
       <c r="J903" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K903" s="1" t="s">
         <v>20</v>
@@ -57089,7 +57097,7 @@
         <v>20</v>
       </c>
       <c r="J916" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K916" s="1" t="s">
         <v>20</v>
@@ -59102,7 +59110,7 @@
         <v>20</v>
       </c>
       <c r="J949" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K949" s="1" t="s">
         <v>20</v>
@@ -60120,7 +60128,7 @@
         <v>64</v>
       </c>
       <c r="C966" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D966" s="1" t="s">
         <v>20</v>
@@ -61401,7 +61409,7 @@
         <v>65</v>
       </c>
       <c r="C987" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D987" s="1" t="s">
         <v>20</v>
@@ -62011,7 +62019,7 @@
         <v>65</v>
       </c>
       <c r="C997" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D997" s="1" t="s">
         <v>20</v>
@@ -62072,7 +62080,7 @@
         <v>65</v>
       </c>
       <c r="C998" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D998" s="1" t="s">
         <v>20</v>
@@ -63658,7 +63666,7 @@
         <v>66</v>
       </c>
       <c r="C1024" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1024" s="1" t="s">
         <v>20</v>
@@ -64716,7 +64724,7 @@
         <v>111</v>
       </c>
       <c r="J1041" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1041" s="1" t="s">
         <v>20</v>
@@ -64756,7 +64764,7 @@
         <v>69</v>
       </c>
       <c r="C1042" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1042" s="1" t="s">
         <v>20</v>
@@ -67440,7 +67448,7 @@
         <v>72</v>
       </c>
       <c r="C1086" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1086" s="1" t="s">
         <v>20</v>
@@ -68254,7 +68262,7 @@
         <v>20</v>
       </c>
       <c r="J1099" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1099" s="1" t="s">
         <v>20</v>
@@ -68355,7 +68363,7 @@
         <v>73</v>
       </c>
       <c r="C1101" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1101" s="1" t="s">
         <v>20</v>
@@ -68599,7 +68607,7 @@
         <v>73</v>
       </c>
       <c r="C1105" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1105" s="1" t="s">
         <v>20</v>
@@ -70309,7 +70317,7 @@
         <v>76</v>
       </c>
       <c r="C1133" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1133" s="1" t="s">
         <v>20</v>
@@ -71611,7 +71619,7 @@
         <v>20</v>
       </c>
       <c r="J1154" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1154" s="1" t="s">
         <v>20</v>
@@ -71651,7 +71659,7 @@
         <v>77</v>
       </c>
       <c r="C1155" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1155" s="1" t="s">
         <v>20</v>
@@ -72139,7 +72147,7 @@
         <v>77</v>
       </c>
       <c r="C1163" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1163" s="1" t="s">
         <v>20</v>
@@ -72200,7 +72208,7 @@
         <v>77</v>
       </c>
       <c r="C1164" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1164" s="1" t="s">
         <v>20</v>
@@ -74234,7 +74242,7 @@
         <v>20</v>
       </c>
       <c r="J1197" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1197" s="1" t="s">
         <v>20</v>
@@ -74274,7 +74282,7 @@
         <v>79</v>
       </c>
       <c r="C1198" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1198" s="1" t="s">
         <v>20</v>
@@ -75799,7 +75807,7 @@
         <v>82</v>
       </c>
       <c r="C1223" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1223" s="1" t="s">
         <v>20</v>
@@ -76165,7 +76173,7 @@
         <v>82</v>
       </c>
       <c r="C1229" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1229" s="1" t="s">
         <v>20</v>
@@ -77528,7 +77536,7 @@
         <v>20</v>
       </c>
       <c r="J1251" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1251" s="1" t="s">
         <v>20</v>
@@ -77955,7 +77963,7 @@
         <v>20</v>
       </c>
       <c r="J1258" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1258" s="1" t="s">
         <v>20</v>
@@ -77995,7 +78003,7 @@
         <v>85</v>
       </c>
       <c r="C1259" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1259" s="1" t="s">
         <v>20</v>
@@ -78056,7 +78064,7 @@
         <v>85</v>
       </c>
       <c r="C1260" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1260" s="1" t="s">
         <v>20</v>
@@ -80069,7 +80077,7 @@
         <v>87</v>
       </c>
       <c r="C1293" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1293" s="1" t="s">
         <v>20</v>
@@ -85990,7 +85998,7 @@
         <v>186</v>
       </c>
       <c r="C1390" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1390" s="1" t="s">
         <v>20</v>
